--- a/models/table_b2-3.xlsx
+++ b/models/table_b2-3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="155">
   <si>
     <t xml:space="preserve">                       </t>
   </si>
@@ -109,382 +109,376 @@
     <t xml:space="preserve">PanelOLS        </t>
   </si>
   <si>
-    <t xml:space="preserve">1797            </t>
+    <t xml:space="preserve">1808            </t>
   </si>
   <si>
     <t xml:space="preserve">Clustered       </t>
   </si>
   <si>
-    <t xml:space="preserve">0.4637          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.2203         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3009          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">383.47          </t>
+    <t xml:space="preserve">0.4551          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.2955         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2900          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">372.49          </t>
   </si>
   <si>
     <t xml:space="preserve">0.0000          </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0655***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0043)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0238          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0837)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3858***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1188)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3555**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1583)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3183          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.2611)        </t>
+    <t xml:space="preserve">0.0675***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0040)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0303          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0831)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3708***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1266)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3608**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1624)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3189          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.2642)        </t>
   </si>
   <si>
     <t xml:space="preserve">                </t>
   </si>
   <si>
-    <t xml:space="preserve">0.4654          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.2461         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2972          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">257.15          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0652***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0193          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0858)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3909***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1198)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3455**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1555)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3236          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.2621)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0487*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0293)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0024          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0177)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7766          </t>
+    <t xml:space="preserve">0.4567          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.3214         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2868          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">249.66          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0673***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0258          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0850)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3759***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1281)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3512**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1595)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3241          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.2650)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0466          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0330)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0033          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0182)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7624          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7687          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7646          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">713.83          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0651***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0012)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0112          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0260)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1052**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0432)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1174**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0573)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0386          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0830)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0171          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0175)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0078         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0097)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1340**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0616)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7355***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0569)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7717          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9082          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8016          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">668.07          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0643***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0363         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0295)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0830*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0472)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0721          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0477)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0177         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0734)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0227          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0172)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0065         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0120)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0569          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0536)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6808***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0604)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1889***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0466)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7685          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8777          </t>
   </si>
   <si>
     <t xml:space="preserve">0.7918          </t>
   </si>
   <si>
-    <t xml:space="preserve">0.7808          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">769.28          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0627***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0012)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0109          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0251)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1037***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0398)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1081**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0524)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0369          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0794)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0163          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0181)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0081         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0091)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1244**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0608)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7506***       </t>
+    <t xml:space="preserve">656.14          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0646***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0222         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0273)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1141**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0468)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0902*         </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0533)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.7849          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9210          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8137          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">717.31          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0620***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0011)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0341         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0280)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0837*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0441)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0662          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0438)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0160         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0699)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0217          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0172)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0069         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0115)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0511          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6995***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0558)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1767***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0427)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7817          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8890          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8044          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">704.02          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0623***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0196         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0259)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1119***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0433)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0835*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0490)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0015          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0765)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0199          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0178)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0098         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0113)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0819          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0575)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7225***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0527)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1071***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0249)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7835          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9100          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8102          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">711.27          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0621***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0282         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0269)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1011**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0440)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0743          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0466)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0087         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0734)        </t>
+    <t xml:space="preserve">-0.0003         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0804)        </t>
   </si>
   <si>
     <t xml:space="preserve">0.0210          </t>
   </si>
   <si>
-    <t xml:space="preserve">(0.0175)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0088         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0116)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0656          </t>
+    <t xml:space="preserve">(0.0173)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0096         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0880          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0577)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7033***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0567)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1182***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0274)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7703          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8987          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7980          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">662.96          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0644***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0308         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0283)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1019**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0473)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0804          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0508)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0107         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0771)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0220          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0084         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0122)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0712          </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0555)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.7107***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0537)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1449***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0324)        </t>
+    <t xml:space="preserve">0.6912***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0579)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1574***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0356)        </t>
   </si>
 </sst>
 </file>
@@ -983,7 +977,7 @@
         <v>111</v>
       </c>
       <c r="G6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1006,7 +1000,7 @@
         <v>111</v>
       </c>
       <c r="G7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1029,7 +1023,7 @@
         <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1052,7 +1046,7 @@
         <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1075,7 +1069,7 @@
         <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1121,7 +1115,7 @@
         <v>115</v>
       </c>
       <c r="G12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1138,13 +1132,13 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1161,13 +1155,13 @@
         <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F14" t="s">
         <v>116</v>
       </c>
       <c r="G14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1184,13 +1178,13 @@
         <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F15" t="s">
         <v>117</v>
       </c>
       <c r="G15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1207,13 +1201,13 @@
         <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F16" t="s">
         <v>118</v>
       </c>
       <c r="G16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1230,13 +1224,13 @@
         <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F17" t="s">
         <v>119</v>
       </c>
       <c r="G17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1253,13 +1247,13 @@
         <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18" t="s">
         <v>120</v>
       </c>
       <c r="G18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1276,13 +1270,13 @@
         <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
       </c>
       <c r="G19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1299,13 +1293,13 @@
         <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F20" t="s">
         <v>122</v>
       </c>
       <c r="G20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1322,13 +1316,13 @@
         <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F21" t="s">
         <v>123</v>
       </c>
       <c r="G21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1345,13 +1339,13 @@
         <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F22" t="s">
         <v>124</v>
       </c>
       <c r="G22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1368,13 +1362,13 @@
         <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F23" t="s">
         <v>125</v>
       </c>
       <c r="G23" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1391,13 +1385,13 @@
         <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F24" t="s">
         <v>126</v>
       </c>
       <c r="G24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1414,13 +1408,13 @@
         <v>83</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F25" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="G25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1437,13 +1431,13 @@
         <v>84</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1460,13 +1454,13 @@
         <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1486,10 +1480,10 @@
         <v>107</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1509,10 +1503,10 @@
         <v>108</v>
       </c>
       <c r="F29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1578,7 +1572,7 @@
         <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G32" t="s">
         <v>48</v>
@@ -1601,7 +1595,7 @@
         <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G33" t="s">
         <v>48</v>
@@ -1627,7 +1621,7 @@
         <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1650,7 +1644,7 @@
         <v>48</v>
       </c>
       <c r="G35" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/models/table_b2-3.xlsx
+++ b/models/table_b2-3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="195">
   <si>
     <t xml:space="preserve">                       </t>
   </si>
@@ -70,16 +70,19 @@
     <t xml:space="preserve">const                  </t>
   </si>
   <si>
-    <t xml:space="preserve">l_sy_suffrage          </t>
+    <t xml:space="preserve">l_sy_gdp               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">l_sy_xtr_urban         </t>
   </si>
   <si>
     <t xml:space="preserve">l_sy_lifeex            </t>
   </si>
   <si>
-    <t xml:space="preserve">l_sy_urban             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">l_sy_gdp               </t>
+    <t xml:space="preserve">l_sy_trnsprnt          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">l_sy_brcrcy            </t>
   </si>
   <si>
     <t xml:space="preserve">l_sy_war               </t>
@@ -94,6 +97,15 @@
     <t xml:space="preserve">l_sy_sci_state         </t>
   </si>
   <si>
+    <t xml:space="preserve">1860                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1860:nat               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1860:sci               </t>
+  </si>
+  <si>
     <t xml:space="preserve">l_wy_nat_world         </t>
   </si>
   <si>
@@ -109,376 +121,484 @@
     <t xml:space="preserve">PanelOLS        </t>
   </si>
   <si>
-    <t xml:space="preserve">1808            </t>
+    <t xml:space="preserve">2041            </t>
   </si>
   <si>
     <t xml:space="preserve">Clustered       </t>
   </si>
   <si>
-    <t xml:space="preserve">0.4551          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.2955         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2900          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">372.49          </t>
+    <t xml:space="preserve">0.5419          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0371         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3950          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">476.73          </t>
   </si>
   <si>
     <t xml:space="preserve">0.0000          </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0675***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0040)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0303          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0831)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3708***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1266)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3608**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1624)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3189          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.2642)        </t>
+    <t xml:space="preserve">0.0627***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0038)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2915          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.2229)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3770***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1339)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1567**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0748)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0126         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0966)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1364          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1253)        </t>
   </si>
   <si>
     <t xml:space="preserve">                </t>
   </si>
   <si>
-    <t xml:space="preserve">0.4567          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.3214         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2868          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">249.66          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0673***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0258          </t>
+    <t xml:space="preserve">0.5467          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0225          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4127          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">346.84          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0625***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2865          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.2188)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3795***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1335)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1607**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0749)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0025         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1182          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1309)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0761***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0222)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0203         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0171)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8230          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8906          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8361          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">778.25          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0611***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0010)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0441          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0584)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0564**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0263)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0382          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0286)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0282         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0290)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0130          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0309)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0224          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0152         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0106)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1696***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0469)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7425***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0556)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1876          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1225)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0399          </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0850)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.3759***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1281)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3512**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1595)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3241          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.2650)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0466          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0330)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0033          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0182)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7624          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7687          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7646          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">713.83          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0651***       </t>
+    <t xml:space="preserve">0.4055**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1861)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8285          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9350          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8530          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">746.05          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0604***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0011)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0111          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0532)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0136          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0152)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0338          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0342)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0207         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0369)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0089         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0324)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0284*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0165)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0147         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0111)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0195          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0619)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6994***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0574)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1770          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1224)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0689          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0853)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4122**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1836)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2026***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0510)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8279          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9263          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8501          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">742.45          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0630***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0013)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0037          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0533)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0026          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0112          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0323)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0339)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0024         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0334)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0229          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0160)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0128         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0116)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0510          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6925***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0626)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1998*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1202)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0586          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0825)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4169**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1823)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2169***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0628)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8286          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9287          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8515          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">746.57          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0617***       </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0012)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0112          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0260)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1052**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0432)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1174**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0573)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0386          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0830)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0171          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0175)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0078         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0097)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1340**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0616)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7355***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0569)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7717          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9082          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8016          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">668.07          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0643***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0363         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0295)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0830*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0472)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0721          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0477)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0177         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0734)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0227          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0172)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0065         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0120)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0569          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0536)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6808***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0604)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1889***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0466)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7685          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8777          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7918          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">656.14          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0646***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0222         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0273)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1141**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0468)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0902*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0533)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0003         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0804)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0210          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0173)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0096         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0880          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0577)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7033***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0567)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1182***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0274)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7703          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8987          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7980          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">662.96          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0644***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0308         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0283)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1019**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0473)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0804          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0508)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0107         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0771)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0220          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0084         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0122)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0712          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0555)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6912***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0579)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1574***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0356)        </t>
+    <t xml:space="preserve">0.0045          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0525)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0042          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0124)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0216          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0340)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0200         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0360)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0073         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0333)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0260          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0163)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0136         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0115)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0235          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0591)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6922***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0599)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1881          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1208)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0659          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0839)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4152**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1826)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2270***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0585)        </t>
   </si>
 </sst>
 </file>
@@ -836,7 +956,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -870,22 +990,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -893,22 +1013,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -916,22 +1036,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -939,22 +1059,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -962,22 +1082,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="G6" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -985,22 +1105,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="G7" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1008,22 +1128,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="G8" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1031,22 +1151,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="G9" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1054,22 +1174,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="G10" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1077,22 +1197,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1100,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1123,22 +1243,22 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1146,22 +1266,22 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1169,22 +1289,22 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1192,22 +1312,22 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F16" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="G16" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1215,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F17" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1238,22 +1358,22 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F18" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="G18" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1261,22 +1381,22 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F19" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="G19" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1284,22 +1404,22 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G20" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1307,22 +1427,22 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="F21" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="G21" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1330,22 +1450,22 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="F22" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="G22" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1353,22 +1473,22 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="F23" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="G23" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1376,22 +1496,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F24" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="G24" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1399,22 +1519,22 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="F25" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="G25" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1422,22 +1542,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="F26" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="G26" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1445,22 +1565,22 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="F27" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="G27" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1468,22 +1588,22 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="G28" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1491,22 +1611,22 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="G29" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1514,22 +1634,22 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1537,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="E31" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="G31" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1560,22 +1680,22 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="F32" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="G32" t="s">
-        <v>48</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1583,22 +1703,22 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="F33" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="G33" t="s">
-        <v>48</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1606,22 +1726,22 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="G34" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1629,22 +1749,206 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="G35" t="s">
-        <v>154</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" t="s">
+        <v>159</v>
+      </c>
+      <c r="G36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" t="s">
+        <v>160</v>
+      </c>
+      <c r="G37" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" t="s">
+        <v>133</v>
+      </c>
+      <c r="F39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" t="s">
+        <v>161</v>
+      </c>
+      <c r="G40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" t="s">
+        <v>162</v>
+      </c>
+      <c r="G41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
